--- a/11/1/1/Ventas comercio 1993 a 2021 - Anual.xlsx
+++ b/11/1/1/Ventas comercio 1993 a 2021 - Anual.xlsx
@@ -1695,7 +1695,7 @@
         <v>74.45999999999999</v>
       </c>
       <c r="E29">
-        <v>108.78</v>
+        <v>108.77</v>
       </c>
       <c r="F29">
         <v>129.54</v>
@@ -1707,10 +1707,10 @@
         <v>164.82</v>
       </c>
       <c r="I29">
-        <v>158.43</v>
+        <v>158.42</v>
       </c>
       <c r="J29">
-        <v>103.86</v>
+        <v>103.85</v>
       </c>
       <c r="K29">
         <v>95.27</v>
@@ -1728,13 +1728,13 @@
         <v>102.26</v>
       </c>
       <c r="P29">
-        <v>108.4</v>
+        <v>108.36</v>
       </c>
       <c r="Q29">
-        <v>115.85</v>
+        <v>115.83</v>
       </c>
       <c r="R29">
-        <v>103.29</v>
+        <v>103.27</v>
       </c>
       <c r="S29">
         <v>86.13</v>

--- a/11/1/1/Ventas comercio 1993 a 2021 - Anual.xlsx
+++ b/11/1/1/Ventas comercio 1993 a 2021 - Anual.xlsx
@@ -1695,7 +1695,7 @@
         <v>74.45999999999999</v>
       </c>
       <c r="E29">
-        <v>108.78</v>
+        <v>108.79</v>
       </c>
       <c r="F29">
         <v>129.53</v>
@@ -1707,13 +1707,13 @@
         <v>164.82</v>
       </c>
       <c r="I29">
-        <v>158.4</v>
+        <v>158.41</v>
       </c>
       <c r="J29">
-        <v>103.86</v>
+        <v>103.88</v>
       </c>
       <c r="K29">
-        <v>95.41</v>
+        <v>95.53</v>
       </c>
       <c r="L29">
         <v>66.67</v>
@@ -1731,13 +1731,13 @@
         <v>108.39</v>
       </c>
       <c r="Q29">
-        <v>115.83</v>
+        <v>115.85</v>
       </c>
       <c r="R29">
-        <v>103.24</v>
+        <v>103.27</v>
       </c>
       <c r="S29">
-        <v>86.13</v>
+        <v>86.26000000000001</v>
       </c>
     </row>
   </sheetData>
